--- a/data_salaires.xlsx
+++ b/data_salaires.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\153002\github\pbinterfipu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEE538E-A093-4096-B6E9-F70892E36C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF98D9B4-4AEA-4414-A838-F38D55356630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -172,7 +173,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +186,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,14 +215,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -249,9 +263,9 @@
             <v>2018 Q1</v>
           </cell>
           <cell r="M78">
-            <v>102.3</v>
-          </cell>
-          <cell r="N78">
+            <v>119.7</v>
+          </cell>
+          <cell r="O78">
             <v>95.615611353519895</v>
           </cell>
         </row>
@@ -260,9 +274,9 @@
             <v>2018 Q2</v>
           </cell>
           <cell r="M79">
-            <v>103.966666666667</v>
-          </cell>
-          <cell r="N79">
+            <v>121.6</v>
+          </cell>
+          <cell r="O79">
             <v>96.458284121451001</v>
           </cell>
         </row>
@@ -271,9 +285,9 @@
             <v>2018 Q3</v>
           </cell>
           <cell r="M80">
-            <v>105.23333333333299</v>
-          </cell>
-          <cell r="N80">
+            <v>123.1</v>
+          </cell>
+          <cell r="O80">
             <v>97.3151291959812</v>
           </cell>
         </row>
@@ -282,9 +296,9 @@
             <v>2018 Q4</v>
           </cell>
           <cell r="M81">
-            <v>104.666666666667</v>
-          </cell>
-          <cell r="N81">
+            <v>122.4</v>
+          </cell>
+          <cell r="O81">
             <v>97.796906504598596</v>
           </cell>
         </row>
@@ -293,9 +307,9 @@
             <v>2019 Q1</v>
           </cell>
           <cell r="M82">
-            <v>103.9</v>
-          </cell>
-          <cell r="N82">
+            <v>121.6</v>
+          </cell>
+          <cell r="O82">
             <v>98.800662436459902</v>
           </cell>
         </row>
@@ -304,9 +318,9 @@
             <v>2019 Q2</v>
           </cell>
           <cell r="M83">
-            <v>105.7</v>
-          </cell>
-          <cell r="N83">
+            <v>123.6</v>
+          </cell>
+          <cell r="O83">
             <v>99.877755639769802</v>
           </cell>
         </row>
@@ -315,9 +329,9 @@
             <v>2019 Q3</v>
           </cell>
           <cell r="M84">
-            <v>106.3</v>
-          </cell>
-          <cell r="N84">
+            <v>124.4</v>
+          </cell>
+          <cell r="O84">
             <v>100.806642551715</v>
           </cell>
         </row>
@@ -326,9 +340,9 @@
             <v>2019 Q4</v>
           </cell>
           <cell r="M85">
-            <v>105.9</v>
-          </cell>
-          <cell r="N85">
+            <v>123.9</v>
+          </cell>
+          <cell r="O85">
             <v>100.514939372055</v>
           </cell>
         </row>
@@ -337,9 +351,9 @@
             <v>2020 Q1</v>
           </cell>
           <cell r="M86">
-            <v>105.533333333333</v>
-          </cell>
-          <cell r="N86">
+            <v>123.5</v>
+          </cell>
+          <cell r="O86">
             <v>100.778060043057</v>
           </cell>
         </row>
@@ -348,9 +362,9 @@
             <v>2020 Q2</v>
           </cell>
           <cell r="M87">
-            <v>106.433333333333</v>
-          </cell>
-          <cell r="N87">
+            <v>124.5</v>
+          </cell>
+          <cell r="O87">
             <v>97.622210395375504</v>
           </cell>
         </row>
@@ -359,9 +373,9 @@
             <v>2020 Q3</v>
           </cell>
           <cell r="M88">
-            <v>106.133333333333</v>
-          </cell>
-          <cell r="N88">
+            <v>124.2</v>
+          </cell>
+          <cell r="O88">
             <v>100.814650053779</v>
           </cell>
         </row>
@@ -370,9 +384,9 @@
             <v>2020 Q4</v>
           </cell>
           <cell r="M89">
-            <v>105.26666666666701</v>
-          </cell>
-          <cell r="N89">
+            <v>123.2</v>
+          </cell>
+          <cell r="O89">
             <v>101.85276030327699</v>
           </cell>
         </row>
@@ -381,9 +395,9 @@
             <v>2021 Q1</v>
           </cell>
           <cell r="M90">
-            <v>107.366666666667</v>
-          </cell>
-          <cell r="N90">
+            <v>125.6</v>
+          </cell>
+          <cell r="O90">
             <v>101.24284439397201</v>
           </cell>
         </row>
@@ -392,9 +406,9 @@
             <v>2021 Q2</v>
           </cell>
           <cell r="M91">
-            <v>108.73333333333299</v>
-          </cell>
-          <cell r="N91">
+            <v>127.2</v>
+          </cell>
+          <cell r="O91">
             <v>102.457069910977</v>
           </cell>
         </row>
@@ -403,9 +417,9 @@
             <v>2021 Q3</v>
           </cell>
           <cell r="M92">
-            <v>109.866666666667</v>
-          </cell>
-          <cell r="N92">
+            <v>128.6</v>
+          </cell>
+          <cell r="O92">
             <v>104.606128500987</v>
           </cell>
         </row>
@@ -414,9 +428,9 @@
             <v>2021 Q4</v>
           </cell>
           <cell r="M93">
-            <v>111</v>
-          </cell>
-          <cell r="N93">
+            <v>129.9</v>
+          </cell>
+          <cell r="O93">
             <v>105.600965621604</v>
           </cell>
         </row>
@@ -425,9 +439,9 @@
             <v>2022 Q1</v>
           </cell>
           <cell r="M94">
-            <v>113.9</v>
-          </cell>
-          <cell r="N94">
+            <v>133.19999999999999</v>
+          </cell>
+          <cell r="O94">
             <v>106.605652885601</v>
           </cell>
         </row>
@@ -436,9 +450,9 @@
             <v>2022 Q2</v>
           </cell>
           <cell r="M95">
-            <v>117.73333333333299</v>
-          </cell>
-          <cell r="N95">
+            <v>137.80000000000001</v>
+          </cell>
+          <cell r="O95">
             <v>106.74409946572101</v>
           </cell>
         </row>
@@ -447,9 +461,9 @@
             <v>2022 Q3</v>
           </cell>
           <cell r="M96">
-            <v>120.2</v>
-          </cell>
-          <cell r="N96">
+            <v>140.6</v>
+          </cell>
+          <cell r="O96">
             <v>107.92811408031</v>
           </cell>
         </row>
@@ -458,9 +472,9 @@
             <v>2022 Q4</v>
           </cell>
           <cell r="M97">
-            <v>123</v>
-          </cell>
-          <cell r="N97">
+            <v>143.9</v>
+          </cell>
+          <cell r="O97">
             <v>110.51545438715</v>
           </cell>
         </row>
@@ -469,9 +483,9 @@
             <v>2023 Q1</v>
           </cell>
           <cell r="M98">
-            <v>123.833333333333</v>
-          </cell>
-          <cell r="N98">
+            <v>144.9</v>
+          </cell>
+          <cell r="O98">
             <v>112.315544865235</v>
           </cell>
         </row>
@@ -480,9 +494,9 @@
             <v>2023 Q2</v>
           </cell>
           <cell r="M99">
-            <v>125.833333333333</v>
-          </cell>
-          <cell r="N99">
+            <v>147.19999999999999</v>
+          </cell>
+          <cell r="O99">
             <v>113.166205355562</v>
           </cell>
         </row>
@@ -491,9 +505,9 @@
             <v>2023 Q3</v>
           </cell>
           <cell r="M100">
-            <v>127.1</v>
-          </cell>
-          <cell r="N100">
+            <v>148.69999999999999</v>
+          </cell>
+          <cell r="O100">
             <v>114.615310340796</v>
           </cell>
         </row>
@@ -502,9 +516,9 @@
             <v>2023 Q4</v>
           </cell>
           <cell r="M101">
-            <v>126.7</v>
-          </cell>
-          <cell r="N101">
+            <v>148.19999999999999</v>
+          </cell>
+          <cell r="O101">
             <v>116.95666336901</v>
           </cell>
         </row>
@@ -513,9 +527,9 @@
             <v>2024 Q1</v>
           </cell>
           <cell r="M102">
-            <v>127.2</v>
-          </cell>
-          <cell r="N102">
+            <v>148.80000000000001</v>
+          </cell>
+          <cell r="O102">
             <v>118.65870250405</v>
           </cell>
         </row>
@@ -524,9 +538,9 @@
             <v>2024 Q2</v>
           </cell>
           <cell r="M103">
-            <v>129.066666666667</v>
-          </cell>
-          <cell r="N103">
+            <v>151</v>
+          </cell>
+          <cell r="O103">
             <v>118.767191996338</v>
           </cell>
         </row>
@@ -537,8 +551,8 @@
           <cell r="M104">
             <v>152.12244185089074</v>
           </cell>
-          <cell r="N104">
-            <v>120.5067099472157</v>
+          <cell r="O104">
+            <v>121.15483380288497</v>
           </cell>
         </row>
         <row r="105">
@@ -548,8 +562,8 @@
           <cell r="M105">
             <v>151.87512273934681</v>
           </cell>
-          <cell r="N105">
-            <v>122.23460822327776</v>
+          <cell r="O105">
+            <v>122.72984664232246</v>
           </cell>
         </row>
         <row r="106">
@@ -559,8 +573,8 @@
           <cell r="M106">
             <v>152.34125564290045</v>
           </cell>
-          <cell r="N106">
-            <v>123.10117574173567</v>
+          <cell r="O106">
+            <v>123.52759064549754</v>
           </cell>
         </row>
         <row r="107">
@@ -570,8 +584,8 @@
           <cell r="M107">
             <v>154.09946196880057</v>
           </cell>
-          <cell r="N107">
-            <v>124.05776163030548</v>
+          <cell r="O107">
+            <v>124.33051998469327</v>
           </cell>
         </row>
         <row r="108">
@@ -581,8 +595,8 @@
           <cell r="M108">
             <v>155.27389955669975</v>
           </cell>
-          <cell r="N108">
-            <v>124.92168840846963</v>
+          <cell r="O108">
+            <v>125.38732940456316</v>
           </cell>
         </row>
         <row r="109">
@@ -592,8 +606,8 @@
           <cell r="M109">
             <v>154.73008866734469</v>
           </cell>
-          <cell r="N109">
-            <v>125.81348328111076</v>
+          <cell r="O109">
+            <v>126.32773437509739</v>
           </cell>
         </row>
       </sheetData>
@@ -605,7 +619,7 @@
           <cell r="M78">
             <v>101.726666666667</v>
           </cell>
-          <cell r="N78">
+          <cell r="O78">
             <v>96.1152836224705</v>
           </cell>
         </row>
@@ -616,7 +630,7 @@
           <cell r="M79">
             <v>104.08</v>
           </cell>
-          <cell r="N79">
+          <cell r="O79">
             <v>96.461714861896198</v>
           </cell>
         </row>
@@ -627,7 +641,7 @@
           <cell r="M80">
             <v>103.59333333333301</v>
           </cell>
-          <cell r="N80">
+          <cell r="O80">
             <v>97.354543378234794</v>
           </cell>
         </row>
@@ -638,7 +652,7 @@
           <cell r="M81">
             <v>104.43</v>
           </cell>
-          <cell r="N81">
+          <cell r="O81">
             <v>97.949126786947204</v>
           </cell>
         </row>
@@ -649,7 +663,7 @@
           <cell r="M82">
             <v>102.87666666666701</v>
           </cell>
-          <cell r="N82">
+          <cell r="O82">
             <v>99.0802023354548</v>
           </cell>
         </row>
@@ -660,7 +674,7 @@
           <cell r="M83">
             <v>105.183333333333</v>
           </cell>
-          <cell r="N83">
+          <cell r="O83">
             <v>100.054938694131</v>
           </cell>
         </row>
@@ -671,7 +685,7 @@
           <cell r="M84">
             <v>104.043333333333</v>
           </cell>
-          <cell r="N84">
+          <cell r="O84">
             <v>100.404034320196</v>
           </cell>
         </row>
@@ -682,7 +696,7 @@
           <cell r="M85">
             <v>104.95333333333301</v>
           </cell>
-          <cell r="N85">
+          <cell r="O85">
             <v>100.460824650219</v>
           </cell>
         </row>
@@ -693,7 +707,7 @@
           <cell r="M86">
             <v>103.586666666667</v>
           </cell>
-          <cell r="N86">
+          <cell r="O86">
             <v>101.41083293099599</v>
           </cell>
         </row>
@@ -704,7 +718,7 @@
           <cell r="M87">
             <v>104.543333333333</v>
           </cell>
-          <cell r="N87">
+          <cell r="O87">
             <v>96.163302579026805</v>
           </cell>
         </row>
@@ -715,7 +729,7 @@
           <cell r="M88">
             <v>103.383333333333</v>
           </cell>
-          <cell r="N88">
+          <cell r="O88">
             <v>103.898693840023</v>
           </cell>
         </row>
@@ -726,7 +740,7 @@
           <cell r="M89">
             <v>104.136666666667</v>
           </cell>
-          <cell r="N89">
+          <cell r="O89">
             <v>103.31535334141201</v>
           </cell>
         </row>
@@ -737,7 +751,7 @@
           <cell r="M90">
             <v>104.12</v>
           </cell>
-          <cell r="N90">
+          <cell r="O90">
             <v>105.021841176381</v>
           </cell>
         </row>
@@ -748,7 +762,7 @@
           <cell r="M91">
             <v>106.933333333333</v>
           </cell>
-          <cell r="N91">
+          <cell r="O91">
             <v>103.941342351332</v>
           </cell>
         </row>
@@ -759,7 +773,7 @@
           <cell r="M92">
             <v>106.9</v>
           </cell>
-          <cell r="N92">
+          <cell r="O92">
             <v>107.20612805189501</v>
           </cell>
         </row>
@@ -770,7 +784,7 @@
           <cell r="M93">
             <v>110.2</v>
           </cell>
-          <cell r="N93">
+          <cell r="O93">
             <v>106.788910137946</v>
           </cell>
         </row>
@@ -781,7 +795,7 @@
           <cell r="M94">
             <v>112.306666666667</v>
           </cell>
-          <cell r="N94">
+          <cell r="O94">
             <v>108.057063566884</v>
           </cell>
         </row>
@@ -792,7 +806,7 @@
           <cell r="M95">
             <v>116.48666666666701</v>
           </cell>
-          <cell r="N95">
+          <cell r="O95">
             <v>108.445334430527</v>
           </cell>
         </row>
@@ -803,7 +817,7 @@
           <cell r="M96">
             <v>117.643333333333</v>
           </cell>
-          <cell r="N96">
+          <cell r="O96">
             <v>111.821620528224</v>
           </cell>
         </row>
@@ -814,7 +828,7 @@
           <cell r="M97">
             <v>117.35</v>
           </cell>
-          <cell r="N97">
+          <cell r="O97">
             <v>111.926017921461</v>
           </cell>
         </row>
@@ -825,7 +839,7 @@
           <cell r="M98">
             <v>117.866666666667</v>
           </cell>
-          <cell r="N98">
+          <cell r="O98">
             <v>114.27965314181</v>
           </cell>
         </row>
@@ -836,7 +850,7 @@
           <cell r="M99">
             <v>119.726666666667</v>
           </cell>
-          <cell r="N99">
+          <cell r="O99">
             <v>114.814268852656</v>
           </cell>
         </row>
@@ -847,7 +861,7 @@
           <cell r="M100">
             <v>120.696666666667</v>
           </cell>
-          <cell r="N100">
+          <cell r="O100">
             <v>117.42941143365201</v>
           </cell>
         </row>
@@ -858,7 +872,7 @@
           <cell r="M101">
             <v>121.26666666666701</v>
           </cell>
-          <cell r="N101">
+          <cell r="O101">
             <v>117.58635889436501</v>
           </cell>
         </row>
@@ -869,7 +883,7 @@
           <cell r="M102">
             <v>121.68</v>
           </cell>
-          <cell r="N102">
+          <cell r="O102">
             <v>119.79694840129</v>
           </cell>
         </row>
@@ -880,7 +894,7 @@
           <cell r="M103">
             <v>124.02</v>
           </cell>
-          <cell r="N103">
+          <cell r="O103">
             <v>119.95298995896199</v>
           </cell>
         </row>
@@ -891,7 +905,7 @@
           <cell r="M104">
             <v>123.67247568875801</v>
           </cell>
-          <cell r="N104">
+          <cell r="O104">
             <v>120.91261387863369</v>
           </cell>
         </row>
@@ -902,7 +916,7 @@
           <cell r="M105">
             <v>124.61084059804648</v>
           </cell>
-          <cell r="N105">
+          <cell r="O105">
             <v>122.00179470445241</v>
           </cell>
         </row>
@@ -913,7 +927,7 @@
           <cell r="M106">
             <v>125.43919116092198</v>
           </cell>
-          <cell r="N106">
+          <cell r="O106">
             <v>123.10078687115013</v>
           </cell>
         </row>
@@ -924,7 +938,7 @@
           <cell r="M107">
             <v>126.14039623951153</v>
           </cell>
-          <cell r="N107">
+          <cell r="O107">
             <v>124.33376435245155</v>
           </cell>
         </row>
@@ -935,7 +949,7 @@
           <cell r="M108">
             <v>126.8455210544904</v>
           </cell>
-          <cell r="N108">
+          <cell r="O108">
             <v>125.57909133620568</v>
           </cell>
         </row>
@@ -946,7 +960,7 @@
           <cell r="M109">
             <v>127.554587517185</v>
           </cell>
-          <cell r="N109">
+          <cell r="O109">
             <v>126.83689151502909</v>
           </cell>
         </row>
@@ -954,9 +968,9 @@
       <sheetData sheetId="2">
         <row r="78">
           <cell r="M78">
-            <v>102.44329999999999</v>
-          </cell>
-          <cell r="N78">
+            <v>102.443333333333</v>
+          </cell>
+          <cell r="O78">
             <v>99.218662037528702</v>
           </cell>
         </row>
@@ -964,7 +978,7 @@
           <cell r="M79">
             <v>103.76</v>
           </cell>
-          <cell r="N79">
+          <cell r="O79">
             <v>99.744724148525407</v>
           </cell>
         </row>
@@ -972,79 +986,79 @@
           <cell r="M80">
             <v>104.09</v>
           </cell>
-          <cell r="N80">
+          <cell r="O80">
             <v>100.362885403181</v>
           </cell>
         </row>
         <row r="81">
           <cell r="M81">
-            <v>104.1133</v>
-          </cell>
-          <cell r="N81">
+            <v>104.113333333333</v>
+          </cell>
+          <cell r="O81">
             <v>100.876032381016</v>
           </cell>
         </row>
         <row r="82">
           <cell r="M82">
-            <v>103.9033</v>
-          </cell>
-          <cell r="N82">
+            <v>103.90333333333299</v>
+          </cell>
+          <cell r="O82">
             <v>99.925256343613</v>
           </cell>
         </row>
         <row r="83">
           <cell r="M83">
-            <v>105.1133</v>
-          </cell>
-          <cell r="N83">
+            <v>105.113333333333</v>
+          </cell>
+          <cell r="O83">
             <v>99.821493647443702</v>
           </cell>
         </row>
         <row r="84">
           <cell r="M84">
-            <v>105.3533</v>
-          </cell>
-          <cell r="N84">
+            <v>105.353333333333</v>
+          </cell>
+          <cell r="O84">
             <v>100.217652141892</v>
           </cell>
         </row>
         <row r="85">
           <cell r="M85">
-            <v>105.41670000000001</v>
-          </cell>
-          <cell r="N85">
+            <v>105.416666666667</v>
+          </cell>
+          <cell r="O85">
             <v>100.035597867051</v>
           </cell>
         </row>
         <row r="86">
           <cell r="M86">
-            <v>105.2833</v>
-          </cell>
-          <cell r="N86">
+            <v>105.283333333333</v>
+          </cell>
+          <cell r="O86">
             <v>97.336708041256401</v>
           </cell>
         </row>
         <row r="87">
           <cell r="M87">
-            <v>105.4633</v>
-          </cell>
-          <cell r="N87">
+            <v>105.463333333333</v>
+          </cell>
+          <cell r="O87">
             <v>90.282845021076099</v>
           </cell>
         </row>
         <row r="88">
           <cell r="M88">
-            <v>105.7333</v>
-          </cell>
-          <cell r="N88">
+            <v>105.73333333333299</v>
+          </cell>
+          <cell r="O88">
             <v>99.527373326911899</v>
           </cell>
         </row>
         <row r="89">
           <cell r="M89">
-            <v>105.5067</v>
-          </cell>
-          <cell r="N89">
+            <v>105.506666666667</v>
+          </cell>
+          <cell r="O89">
             <v>98.683685013106697</v>
           </cell>
         </row>
@@ -1052,15 +1066,15 @@
           <cell r="M90">
             <v>106.3</v>
           </cell>
-          <cell r="N90">
+          <cell r="O90">
             <v>99.019001818304204</v>
           </cell>
         </row>
         <row r="91">
           <cell r="M91">
-            <v>107.3233</v>
-          </cell>
-          <cell r="N91">
+            <v>107.323333333333</v>
+          </cell>
+          <cell r="O91">
             <v>100.094530979941</v>
           </cell>
         </row>
@@ -1068,23 +1082,23 @@
           <cell r="M92">
             <v>108.06</v>
           </cell>
-          <cell r="N92">
+          <cell r="O92">
             <v>102.569037000291</v>
           </cell>
         </row>
         <row r="93">
           <cell r="M93">
-            <v>109.02330000000001</v>
-          </cell>
-          <cell r="N93">
+            <v>109.023333333333</v>
+          </cell>
+          <cell r="O93">
             <v>103.387888357477</v>
           </cell>
         </row>
         <row r="94">
           <cell r="M94">
-            <v>110.7533</v>
-          </cell>
-          <cell r="N94">
+            <v>110.753333333333</v>
+          </cell>
+          <cell r="O94">
             <v>104.22931190857</v>
           </cell>
         </row>
@@ -1092,7 +1106,7 @@
           <cell r="M95">
             <v>113.67</v>
           </cell>
-          <cell r="N95">
+          <cell r="O95">
             <v>105.180338151192</v>
           </cell>
         </row>
@@ -1100,7 +1114,7 @@
           <cell r="M96">
             <v>115.11</v>
           </cell>
-          <cell r="N96">
+          <cell r="O96">
             <v>106.891785178945</v>
           </cell>
         </row>
@@ -1108,7 +1122,7 @@
           <cell r="M97">
             <v>116.61</v>
           </cell>
-          <cell r="N97">
+          <cell r="O97">
             <v>108.234486358867</v>
           </cell>
         </row>
@@ -1116,96 +1130,96 @@
           <cell r="M98">
             <v>118.51</v>
           </cell>
-          <cell r="N98">
+          <cell r="O98">
             <v>109.27525316783399</v>
           </cell>
         </row>
         <row r="99">
           <cell r="M99">
-            <v>120.5733</v>
-          </cell>
-          <cell r="N99">
+            <v>120.573333333333</v>
+          </cell>
+          <cell r="O99">
             <v>110.047997604964</v>
           </cell>
         </row>
         <row r="100">
           <cell r="M100">
-            <v>121.4233</v>
-          </cell>
-          <cell r="N100">
+            <v>121.42333333333301</v>
+          </cell>
+          <cell r="O100">
             <v>110.933835270689</v>
           </cell>
         </row>
         <row r="101">
           <cell r="M101">
-            <v>121.47329999999999</v>
-          </cell>
-          <cell r="N101">
+            <v>121.473333333333</v>
+          </cell>
+          <cell r="O101">
             <v>112.122400625089</v>
           </cell>
         </row>
         <row r="102">
           <cell r="M102">
-            <v>122.0667</v>
-          </cell>
-          <cell r="N102">
+            <v>122.066666666667</v>
+          </cell>
+          <cell r="O102">
             <v>112.724577247184</v>
           </cell>
         </row>
         <row r="103">
           <cell r="M103">
-            <v>123.5933</v>
-          </cell>
-          <cell r="N103">
+            <v>123.59333333333301</v>
+          </cell>
+          <cell r="O103">
             <v>113.47064626283699</v>
           </cell>
         </row>
         <row r="104">
           <cell r="M104">
-            <v>124.30222523990074</v>
-          </cell>
-          <cell r="N104">
-            <v>114.26494078667685</v>
+            <v>124.0371842855411</v>
+          </cell>
+          <cell r="O104">
+            <v>114.15147014041402</v>
           </cell>
         </row>
         <row r="105">
           <cell r="M105">
-            <v>124.09138576341036</v>
-          </cell>
-          <cell r="N105">
-            <v>115.17906031297026</v>
+            <v>123.68744390498389</v>
+          </cell>
+          <cell r="O105">
+            <v>114.9505304313969</v>
           </cell>
         </row>
         <row r="106">
           <cell r="M106">
-            <v>124.46705417244691</v>
-          </cell>
-          <cell r="N106">
-            <v>115.75495561453511</v>
+            <v>123.92206531947878</v>
+          </cell>
+          <cell r="O106">
+            <v>115.41033255312249</v>
           </cell>
         </row>
         <row r="107">
           <cell r="M107">
-            <v>125.44370547471443</v>
-          </cell>
-          <cell r="N107">
-            <v>116.33373039260776</v>
+            <v>124.89475501746955</v>
+          </cell>
+          <cell r="O107">
+            <v>115.98738421588808</v>
           </cell>
         </row>
         <row r="108">
           <cell r="M108">
-            <v>126.47991794384598</v>
-          </cell>
-          <cell r="N108">
-            <v>116.91539904457079</v>
+            <v>125.86565111793354</v>
+          </cell>
+          <cell r="O108">
+            <v>116.68330852118342</v>
           </cell>
         </row>
         <row r="109">
           <cell r="M109">
-            <v>126.73737793008245</v>
-          </cell>
-          <cell r="N109">
-            <v>117.49997603979364</v>
+            <v>126.00026358139961</v>
+          </cell>
+          <cell r="O109">
+            <v>117.50009168083169</v>
           </cell>
         </row>
       </sheetData>
@@ -1415,55 +1429,55 @@
             <v>133.833333333333</v>
           </cell>
           <cell r="O103">
-            <v>125.41331889787912</v>
+            <v>123.96242200142082</v>
           </cell>
         </row>
         <row r="104">
           <cell r="M104">
-            <v>134.09111481575286</v>
+            <v>134.23575910868541</v>
           </cell>
           <cell r="O104">
-            <v>128.07726591705216</v>
+            <v>126.44181797803788</v>
           </cell>
         </row>
         <row r="105">
           <cell r="M105">
-            <v>134.79565686881622</v>
+            <v>135.21854540891761</v>
           </cell>
           <cell r="O105">
-            <v>128.12369919041112</v>
+            <v>126.31757876397614</v>
           </cell>
         </row>
         <row r="106">
           <cell r="M106">
-            <v>134.61723489034276</v>
+            <v>135.03555237250595</v>
           </cell>
           <cell r="O106">
-            <v>128.3240418446841</v>
+            <v>127.47122850967678</v>
           </cell>
         </row>
         <row r="107">
           <cell r="M107">
-            <v>136.54199318071565</v>
+            <v>137.00886610919977</v>
           </cell>
           <cell r="O107">
-            <v>130.83096006582159</v>
+            <v>128.02948361545586</v>
           </cell>
         </row>
         <row r="108">
           <cell r="M108">
-            <v>137.12706314831919</v>
+            <v>137.61784247709673</v>
           </cell>
           <cell r="O108">
-            <v>133.28518983390478</v>
+            <v>130.60839856919392</v>
           </cell>
         </row>
         <row r="109">
           <cell r="M109">
-            <v>137.42406059177765</v>
+            <v>137.80757716428232</v>
           </cell>
           <cell r="O109">
-            <v>133.26272157236122</v>
+            <v>130.64094118317519</v>
           </cell>
         </row>
       </sheetData>
@@ -1472,256 +1486,256 @@
           <cell r="M78">
             <v>101.033333333333</v>
           </cell>
-          <cell r="N78">
-            <v>96.91085538721309</v>
+          <cell r="O78">
+            <v>6614.9790560716665</v>
           </cell>
         </row>
         <row r="79">
           <cell r="M79">
             <v>103.166666666667</v>
           </cell>
-          <cell r="N79">
-            <v>97.619988407043891</v>
+          <cell r="O79">
+            <v>6690.4429096798485</v>
           </cell>
         </row>
         <row r="80">
           <cell r="M80">
             <v>102.433333333333</v>
           </cell>
-          <cell r="N80">
-            <v>98.67356077743348</v>
+          <cell r="O80">
+            <v>6718.9043533129552</v>
           </cell>
         </row>
         <row r="81">
           <cell r="M81">
             <v>103.466666666667</v>
           </cell>
-          <cell r="N81">
-            <v>99.316476799355613</v>
+          <cell r="O81">
+            <v>6744.4478342028924</v>
           </cell>
         </row>
         <row r="82">
           <cell r="M82">
             <v>102.066666666667</v>
           </cell>
-          <cell r="N82">
-            <v>100.13815821193296</v>
+          <cell r="O82">
+            <v>6766.9602549121555</v>
           </cell>
         </row>
         <row r="83">
           <cell r="M83">
             <v>104.1</v>
           </cell>
-          <cell r="N83">
-            <v>99.630408122716929</v>
+          <cell r="O83">
+            <v>6735.5438344940603</v>
           </cell>
         </row>
         <row r="84">
           <cell r="M84">
             <v>102.76666666666701</v>
           </cell>
-          <cell r="N84">
-            <v>99.749246056247316</v>
+          <cell r="O84">
+            <v>6751.4016107643702</v>
           </cell>
         </row>
         <row r="85">
           <cell r="M85">
             <v>103.76666666666701</v>
           </cell>
-          <cell r="N85">
-            <v>100.48218760910278</v>
+          <cell r="O85">
+            <v>6789.3326488706371</v>
           </cell>
         </row>
         <row r="86">
           <cell r="M86">
             <v>102.3</v>
           </cell>
-          <cell r="N86">
-            <v>95.662014019132755</v>
+          <cell r="O86">
+            <v>6519.8461467262487</v>
           </cell>
         </row>
         <row r="87">
           <cell r="M87">
             <v>103.9</v>
           </cell>
-          <cell r="N87">
-            <v>85.658012775992177</v>
+          <cell r="O87">
+            <v>5989.6642335766428</v>
           </cell>
         </row>
         <row r="88">
           <cell r="M88">
             <v>102.533333333333</v>
           </cell>
-          <cell r="N88">
-            <v>98.163683985716716</v>
+          <cell r="O88">
+            <v>6673.4672481757952</v>
           </cell>
         </row>
         <row r="89">
           <cell r="M89">
             <v>103.366666666667</v>
           </cell>
-          <cell r="N89">
-            <v>97.19911172617708</v>
+          <cell r="O89">
+            <v>6641.396253775175</v>
           </cell>
         </row>
         <row r="90">
           <cell r="M90">
             <v>103.066666666667</v>
           </cell>
-          <cell r="N90">
-            <v>98.693379488968404</v>
+          <cell r="O90">
+            <v>6699.4117953255945</v>
           </cell>
         </row>
         <row r="91">
           <cell r="M91">
             <v>105.1</v>
           </cell>
-          <cell r="N91">
-            <v>100.52016410635939</v>
+          <cell r="O91">
+            <v>6804.4860391368238</v>
           </cell>
         </row>
         <row r="92">
           <cell r="M92">
             <v>104.7</v>
           </cell>
-          <cell r="N92">
-            <v>103.93871622715339</v>
+          <cell r="O92">
+            <v>6985.5457962272603</v>
           </cell>
         </row>
         <row r="93">
           <cell r="M93">
             <v>107.23333333333299</v>
           </cell>
-          <cell r="N93">
-            <v>105.08753662986088</v>
+          <cell r="O93">
+            <v>7027.7573314787833</v>
           </cell>
         </row>
         <row r="94">
           <cell r="M94">
             <v>109.26666666666701</v>
           </cell>
-          <cell r="N94">
-            <v>105.98093532370035</v>
+          <cell r="O94">
+            <v>7127.9777297757764</v>
           </cell>
         </row>
         <row r="95">
           <cell r="M95">
             <v>112.833333333333</v>
           </cell>
-          <cell r="N95">
-            <v>106.67429910383822</v>
+          <cell r="O95">
+            <v>7232.3159946485748</v>
           </cell>
         </row>
         <row r="96">
           <cell r="M96">
             <v>114.066666666667</v>
           </cell>
-          <cell r="N96">
-            <v>107.82200279495986</v>
+          <cell r="O96">
+            <v>7250.5639144959941</v>
           </cell>
         </row>
         <row r="97">
           <cell r="M97">
             <v>120.633333333333</v>
           </cell>
-          <cell r="N97">
-            <v>108.23567708876975</v>
+          <cell r="O97">
+            <v>7356.2107442541037</v>
           </cell>
         </row>
         <row r="98">
           <cell r="M98">
             <v>119.666666666667</v>
           </cell>
-          <cell r="N98">
-            <v>110.04281920683751</v>
+          <cell r="O98">
+            <v>7347.2340887877008</v>
           </cell>
         </row>
         <row r="99">
           <cell r="M99">
             <v>121.6</v>
           </cell>
-          <cell r="N99">
-            <v>110.62636825491812</v>
+          <cell r="O99">
+            <v>7381.6337700375234</v>
           </cell>
         </row>
         <row r="100">
           <cell r="M100">
             <v>120.7</v>
           </cell>
-          <cell r="N100">
-            <v>112.20650126175622</v>
+          <cell r="O100">
+            <v>7477.2668981572824</v>
           </cell>
         </row>
         <row r="101">
           <cell r="M101">
             <v>121.8</v>
           </cell>
-          <cell r="N101">
-            <v>112.81106840758584</v>
+          <cell r="O101">
+            <v>7505.5229429605706</v>
           </cell>
         </row>
         <row r="102">
           <cell r="M102">
             <v>120.866666666667</v>
           </cell>
-          <cell r="N102">
-            <v>113.20030700864221</v>
+          <cell r="O102">
+            <v>7620.4489507421586</v>
           </cell>
         </row>
         <row r="103">
           <cell r="M103">
             <v>122.666666666667</v>
           </cell>
-          <cell r="N103">
-            <v>114.50609757830749</v>
+          <cell r="O103">
+            <v>7624.7501116006442</v>
           </cell>
         </row>
         <row r="104">
           <cell r="M104">
             <v>121.79799140431328</v>
           </cell>
-          <cell r="N104">
-            <v>115.65115855409054</v>
+          <cell r="O104">
+            <v>7685.7481124934484</v>
           </cell>
         </row>
         <row r="105">
           <cell r="M105">
             <v>123.59688820892558</v>
           </cell>
-          <cell r="N105">
-            <v>116.57636782252327</v>
+          <cell r="O105">
+            <v>7742.78131736046</v>
           </cell>
         </row>
         <row r="106">
           <cell r="M106">
             <v>123.26690216710196</v>
           </cell>
-          <cell r="N106">
-            <v>117.60846580085823</v>
+          <cell r="O106">
+            <v>7794.0524268501813</v>
           </cell>
         </row>
         <row r="107">
           <cell r="M107">
             <v>125.07792435273262</v>
           </cell>
-          <cell r="N107">
-            <v>118.64970136219372</v>
+          <cell r="O107">
+            <v>7837.8703686471945</v>
           </cell>
         </row>
         <row r="108">
           <cell r="M108">
             <v>124.58702739646637</v>
           </cell>
-          <cell r="N108">
-            <v>119.70015540526698</v>
+          <cell r="O108">
+            <v>7881.9342362049256</v>
           </cell>
         </row>
         <row r="109">
           <cell r="M109">
             <v>126.29358180658399</v>
           </cell>
-          <cell r="N109">
-            <v>120.75990954504455</v>
+          <cell r="O109">
+            <v>7922.5954183081767</v>
           </cell>
         </row>
       </sheetData>
@@ -1753,7 +1767,7 @@
           <cell r="L70">
             <v>249.322</v>
           </cell>
-          <cell r="N70">
+          <cell r="O70">
             <v>96.815667127696898</v>
           </cell>
         </row>
@@ -1761,7 +1775,7 @@
           <cell r="L71">
             <v>250.679</v>
           </cell>
-          <cell r="N71">
+          <cell r="O71">
             <v>95.867875759097103</v>
           </cell>
         </row>
@@ -1769,7 +1783,7 @@
           <cell r="L72">
             <v>251.68600000000001</v>
           </cell>
-          <cell r="N72">
+          <cell r="O72">
             <v>97.448071233017899</v>
           </cell>
         </row>
@@ -1777,7 +1791,7 @@
           <cell r="L73">
             <v>252.71100000000001</v>
           </cell>
-          <cell r="N73">
+          <cell r="O73">
             <v>96.787212996859196</v>
           </cell>
         </row>
@@ -1785,7 +1799,7 @@
           <cell r="L74">
             <v>253.386</v>
           </cell>
-          <cell r="N74">
+          <cell r="O74">
             <v>100.36122204495101</v>
           </cell>
         </row>
@@ -1793,7 +1807,7 @@
           <cell r="L75">
             <v>255.24700000000001</v>
           </cell>
-          <cell r="N75">
+          <cell r="O75">
             <v>99.194024729903703</v>
           </cell>
         </row>
@@ -1801,7 +1815,7 @@
           <cell r="L76">
             <v>256.089</v>
           </cell>
-          <cell r="N76">
+          <cell r="O76">
             <v>100.06659048795299</v>
           </cell>
         </row>
@@ -1809,7 +1823,7 @@
           <cell r="L77">
             <v>257.88799999999998</v>
           </cell>
-          <cell r="N77">
+          <cell r="O77">
             <v>100.378162737192</v>
           </cell>
         </row>
@@ -1817,7 +1831,7 @@
           <cell r="L78">
             <v>258.767</v>
           </cell>
-          <cell r="N78">
+          <cell r="O78">
             <v>103.753496941405</v>
           </cell>
         </row>
@@ -1825,7 +1839,7 @@
           <cell r="L79">
             <v>256.32600000000002</v>
           </cell>
-          <cell r="N79">
+          <cell r="O79">
             <v>109.092437791573</v>
           </cell>
         </row>
@@ -1833,7 +1847,7 @@
           <cell r="L80">
             <v>259.24200000000002</v>
           </cell>
-          <cell r="N80">
+          <cell r="O80">
             <v>109.387200508058</v>
           </cell>
         </row>
@@ -1841,7 +1855,7 @@
           <cell r="L81">
             <v>261.05</v>
           </cell>
-          <cell r="N81">
+          <cell r="O81">
             <v>110.33155203484</v>
           </cell>
         </row>
@@ -1849,7 +1863,7 @@
           <cell r="L82">
             <v>263.67</v>
           </cell>
-          <cell r="N82">
+          <cell r="O82">
             <v>112.498686405576</v>
           </cell>
         </row>
@@ -1857,7 +1871,7 @@
           <cell r="L83">
             <v>268.62299999999999</v>
           </cell>
-          <cell r="N83">
+          <cell r="O83">
             <v>112.795020365032</v>
           </cell>
         </row>
@@ -1865,7 +1879,7 @@
           <cell r="L84">
             <v>272.89</v>
           </cell>
-          <cell r="N84">
+          <cell r="O84">
             <v>114.87078554668599</v>
           </cell>
         </row>
@@ -1873,7 +1887,7 @@
           <cell r="L85">
             <v>278.68</v>
           </cell>
-          <cell r="N85">
+          <cell r="O85">
             <v>115.410574600282</v>
           </cell>
         </row>
@@ -1881,7 +1895,7 @@
           <cell r="L86">
             <v>284.82600000000002</v>
           </cell>
-          <cell r="N86">
+          <cell r="O86">
             <v>117.76956048902299</v>
           </cell>
         </row>
@@ -1889,7 +1903,7 @@
           <cell r="L87">
             <v>291.70600000000002</v>
           </cell>
-          <cell r="N87">
+          <cell r="O87">
             <v>116.30663531326699</v>
           </cell>
         </row>
@@ -1897,7 +1911,7 @@
           <cell r="L88">
             <v>295.50900000000001</v>
           </cell>
-          <cell r="N88">
+          <cell r="O88">
             <v>118.783039209069</v>
           </cell>
         </row>
@@ -1905,7 +1919,7 @@
           <cell r="L89">
             <v>298.44099999999997</v>
           </cell>
-          <cell r="N89">
+          <cell r="O89">
             <v>117.85670224044399</v>
           </cell>
         </row>
@@ -1913,7 +1927,7 @@
           <cell r="L90">
             <v>301.20299999999997</v>
           </cell>
-          <cell r="N90">
+          <cell r="O90">
             <v>121.68854542692399</v>
           </cell>
         </row>
@@ -1921,7 +1935,7 @@
           <cell r="L91">
             <v>303.46699999999998</v>
           </cell>
-          <cell r="N91">
+          <cell r="O91">
             <v>121.406947057848</v>
           </cell>
         </row>
@@ -1929,7 +1943,7 @@
           <cell r="L92">
             <v>306.03399999999999</v>
           </cell>
-          <cell r="N92">
+          <cell r="O92">
             <v>123.54478006365601</v>
           </cell>
         </row>
@@ -1937,7 +1951,7 @@
           <cell r="L93">
             <v>308.09899999999999</v>
           </cell>
-          <cell r="N93">
+          <cell r="O93">
             <v>122.787017205628</v>
           </cell>
         </row>
@@ -1945,7 +1959,7 @@
           <cell r="L94">
             <v>310.99</v>
           </cell>
-          <cell r="N94">
+          <cell r="O94">
             <v>126.075865389109</v>
           </cell>
         </row>
@@ -1953,7 +1967,7 @@
           <cell r="L95">
             <v>313.16000000000003</v>
           </cell>
-          <cell r="N95">
+          <cell r="O95">
             <v>127.1731495503135</v>
           </cell>
         </row>
@@ -1961,7 +1975,7 @@
           <cell r="L96">
             <v>314.9464150932551</v>
           </cell>
-          <cell r="N96">
+          <cell r="O96">
             <v>128.34861950081117</v>
           </cell>
         </row>
@@ -1969,7 +1983,7 @@
           <cell r="L97">
             <v>315.90869917181413</v>
           </cell>
-          <cell r="N97">
+          <cell r="O97">
             <v>129.3548617078728</v>
           </cell>
         </row>
@@ -1977,7 +1991,7 @@
           <cell r="L98">
             <v>317.93274389155175</v>
           </cell>
-          <cell r="N98">
+          <cell r="O98">
             <v>130.28204609708189</v>
           </cell>
         </row>
@@ -1985,7 +1999,7 @@
           <cell r="L99">
             <v>319.3525000720615</v>
           </cell>
-          <cell r="N99">
+          <cell r="O99">
             <v>131.34546748661876</v>
           </cell>
         </row>
@@ -1993,7 +2007,7 @@
           <cell r="L100">
             <v>321.26620855894731</v>
           </cell>
-          <cell r="N100">
+          <cell r="O100">
             <v>132.15157353285096</v>
           </cell>
         </row>
@@ -2001,7 +2015,7 @@
           <cell r="L101">
             <v>322.74575486848147</v>
           </cell>
-          <cell r="N101">
+          <cell r="O101">
             <v>133.05399690109795</v>
           </cell>
         </row>
@@ -2276,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2306,10 +2320,10 @@
       </c>
       <c r="C2">
         <f>[1]DEU!M78</f>
-        <v>102.3</v>
+        <v>119.7</v>
       </c>
       <c r="D2">
-        <f>[1]DEU!N78</f>
+        <f>[1]DEU!O78</f>
         <v>95.615611353519895</v>
       </c>
     </row>
@@ -2323,10 +2337,10 @@
       </c>
       <c r="C3">
         <f>[1]DEU!M79</f>
-        <v>103.966666666667</v>
+        <v>121.6</v>
       </c>
       <c r="D3">
-        <f>[1]DEU!N79</f>
+        <f>[1]DEU!O79</f>
         <v>96.458284121451001</v>
       </c>
     </row>
@@ -2340,10 +2354,10 @@
       </c>
       <c r="C4">
         <f>[1]DEU!M80</f>
-        <v>105.23333333333299</v>
+        <v>123.1</v>
       </c>
       <c r="D4">
-        <f>[1]DEU!N80</f>
+        <f>[1]DEU!O80</f>
         <v>97.3151291959812</v>
       </c>
     </row>
@@ -2357,10 +2371,10 @@
       </c>
       <c r="C5">
         <f>[1]DEU!M81</f>
-        <v>104.666666666667</v>
+        <v>122.4</v>
       </c>
       <c r="D5">
-        <f>[1]DEU!N81</f>
+        <f>[1]DEU!O81</f>
         <v>97.796906504598596</v>
       </c>
     </row>
@@ -2374,10 +2388,10 @@
       </c>
       <c r="C6">
         <f>[1]DEU!M82</f>
-        <v>103.9</v>
+        <v>121.6</v>
       </c>
       <c r="D6">
-        <f>[1]DEU!N82</f>
+        <f>[1]DEU!O82</f>
         <v>98.800662436459902</v>
       </c>
     </row>
@@ -2391,10 +2405,10 @@
       </c>
       <c r="C7">
         <f>[1]DEU!M83</f>
-        <v>105.7</v>
+        <v>123.6</v>
       </c>
       <c r="D7">
-        <f>[1]DEU!N83</f>
+        <f>[1]DEU!O83</f>
         <v>99.877755639769802</v>
       </c>
     </row>
@@ -2408,10 +2422,10 @@
       </c>
       <c r="C8">
         <f>[1]DEU!M84</f>
-        <v>106.3</v>
+        <v>124.4</v>
       </c>
       <c r="D8">
-        <f>[1]DEU!N84</f>
+        <f>[1]DEU!O84</f>
         <v>100.806642551715</v>
       </c>
     </row>
@@ -2425,10 +2439,10 @@
       </c>
       <c r="C9">
         <f>[1]DEU!M85</f>
-        <v>105.9</v>
+        <v>123.9</v>
       </c>
       <c r="D9">
-        <f>[1]DEU!N85</f>
+        <f>[1]DEU!O85</f>
         <v>100.514939372055</v>
       </c>
     </row>
@@ -2442,10 +2456,10 @@
       </c>
       <c r="C10">
         <f>[1]DEU!M86</f>
-        <v>105.533333333333</v>
+        <v>123.5</v>
       </c>
       <c r="D10">
-        <f>[1]DEU!N86</f>
+        <f>[1]DEU!O86</f>
         <v>100.778060043057</v>
       </c>
     </row>
@@ -2459,10 +2473,10 @@
       </c>
       <c r="C11">
         <f>[1]DEU!M87</f>
-        <v>106.433333333333</v>
+        <v>124.5</v>
       </c>
       <c r="D11">
-        <f>[1]DEU!N87</f>
+        <f>[1]DEU!O87</f>
         <v>97.622210395375504</v>
       </c>
     </row>
@@ -2476,10 +2490,10 @@
       </c>
       <c r="C12">
         <f>[1]DEU!M88</f>
-        <v>106.133333333333</v>
+        <v>124.2</v>
       </c>
       <c r="D12">
-        <f>[1]DEU!N88</f>
+        <f>[1]DEU!O88</f>
         <v>100.814650053779</v>
       </c>
     </row>
@@ -2493,10 +2507,10 @@
       </c>
       <c r="C13">
         <f>[1]DEU!M89</f>
-        <v>105.26666666666701</v>
+        <v>123.2</v>
       </c>
       <c r="D13">
-        <f>[1]DEU!N89</f>
+        <f>[1]DEU!O89</f>
         <v>101.85276030327699</v>
       </c>
     </row>
@@ -2510,10 +2524,10 @@
       </c>
       <c r="C14">
         <f>[1]DEU!M90</f>
-        <v>107.366666666667</v>
+        <v>125.6</v>
       </c>
       <c r="D14">
-        <f>[1]DEU!N90</f>
+        <f>[1]DEU!O90</f>
         <v>101.24284439397201</v>
       </c>
     </row>
@@ -2527,10 +2541,10 @@
       </c>
       <c r="C15">
         <f>[1]DEU!M91</f>
-        <v>108.73333333333299</v>
+        <v>127.2</v>
       </c>
       <c r="D15">
-        <f>[1]DEU!N91</f>
+        <f>[1]DEU!O91</f>
         <v>102.457069910977</v>
       </c>
     </row>
@@ -2544,10 +2558,10 @@
       </c>
       <c r="C16">
         <f>[1]DEU!M92</f>
-        <v>109.866666666667</v>
+        <v>128.6</v>
       </c>
       <c r="D16">
-        <f>[1]DEU!N92</f>
+        <f>[1]DEU!O92</f>
         <v>104.606128500987</v>
       </c>
     </row>
@@ -2561,10 +2575,10 @@
       </c>
       <c r="C17">
         <f>[1]DEU!M93</f>
-        <v>111</v>
+        <v>129.9</v>
       </c>
       <c r="D17">
-        <f>[1]DEU!N93</f>
+        <f>[1]DEU!O93</f>
         <v>105.600965621604</v>
       </c>
     </row>
@@ -2578,10 +2592,10 @@
       </c>
       <c r="C18">
         <f>[1]DEU!M94</f>
-        <v>113.9</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="D18">
-        <f>[1]DEU!N94</f>
+        <f>[1]DEU!O94</f>
         <v>106.605652885601</v>
       </c>
     </row>
@@ -2595,10 +2609,10 @@
       </c>
       <c r="C19">
         <f>[1]DEU!M95</f>
-        <v>117.73333333333299</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="D19">
-        <f>[1]DEU!N95</f>
+        <f>[1]DEU!O95</f>
         <v>106.74409946572101</v>
       </c>
     </row>
@@ -2612,10 +2626,10 @@
       </c>
       <c r="C20">
         <f>[1]DEU!M96</f>
-        <v>120.2</v>
+        <v>140.6</v>
       </c>
       <c r="D20">
-        <f>[1]DEU!N96</f>
+        <f>[1]DEU!O96</f>
         <v>107.92811408031</v>
       </c>
     </row>
@@ -2629,10 +2643,10 @@
       </c>
       <c r="C21">
         <f>[1]DEU!M97</f>
-        <v>123</v>
+        <v>143.9</v>
       </c>
       <c r="D21">
-        <f>[1]DEU!N97</f>
+        <f>[1]DEU!O97</f>
         <v>110.51545438715</v>
       </c>
     </row>
@@ -2646,10 +2660,10 @@
       </c>
       <c r="C22">
         <f>[1]DEU!M98</f>
-        <v>123.833333333333</v>
+        <v>144.9</v>
       </c>
       <c r="D22">
-        <f>[1]DEU!N98</f>
+        <f>[1]DEU!O98</f>
         <v>112.315544865235</v>
       </c>
     </row>
@@ -2663,10 +2677,10 @@
       </c>
       <c r="C23">
         <f>[1]DEU!M99</f>
-        <v>125.833333333333</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="D23">
-        <f>[1]DEU!N99</f>
+        <f>[1]DEU!O99</f>
         <v>113.166205355562</v>
       </c>
     </row>
@@ -2680,10 +2694,10 @@
       </c>
       <c r="C24">
         <f>[1]DEU!M100</f>
-        <v>127.1</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="D24">
-        <f>[1]DEU!N100</f>
+        <f>[1]DEU!O100</f>
         <v>114.615310340796</v>
       </c>
     </row>
@@ -2697,10 +2711,10 @@
       </c>
       <c r="C25">
         <f>[1]DEU!M101</f>
-        <v>126.7</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="D25">
-        <f>[1]DEU!N101</f>
+        <f>[1]DEU!O101</f>
         <v>116.95666336901</v>
       </c>
     </row>
@@ -2714,10 +2728,10 @@
       </c>
       <c r="C26">
         <f>[1]DEU!M102</f>
-        <v>127.2</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="D26">
-        <f>[1]DEU!N102</f>
+        <f>[1]DEU!O102</f>
         <v>118.65870250405</v>
       </c>
     </row>
@@ -2731,10 +2745,10 @@
       </c>
       <c r="C27">
         <f>[1]DEU!M103</f>
-        <v>129.066666666667</v>
+        <v>151</v>
       </c>
       <c r="D27">
-        <f>[1]DEU!N103</f>
+        <f>[1]DEU!O103</f>
         <v>118.767191996338</v>
       </c>
     </row>
@@ -2751,8 +2765,8 @@
         <v>152.12244185089074</v>
       </c>
       <c r="D28">
-        <f>[1]DEU!N104</f>
-        <v>120.5067099472157</v>
+        <f>[1]DEU!O104</f>
+        <v>121.15483380288497</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2768,8 +2782,8 @@
         <v>151.87512273934681</v>
       </c>
       <c r="D29">
-        <f>[1]DEU!N105</f>
-        <v>122.23460822327776</v>
+        <f>[1]DEU!O105</f>
+        <v>122.72984664232246</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2785,8 +2799,8 @@
         <v>152.34125564290045</v>
       </c>
       <c r="D30">
-        <f>[1]DEU!N106</f>
-        <v>123.10117574173567</v>
+        <f>[1]DEU!O106</f>
+        <v>123.52759064549754</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2802,8 +2816,8 @@
         <v>154.09946196880057</v>
       </c>
       <c r="D31">
-        <f>[1]DEU!N107</f>
-        <v>124.05776163030548</v>
+        <f>[1]DEU!O107</f>
+        <v>124.33051998469327</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -2819,8 +2833,8 @@
         <v>155.27389955669975</v>
       </c>
       <c r="D32">
-        <f>[1]DEU!N108</f>
-        <v>124.92168840846963</v>
+        <f>[1]DEU!O108</f>
+        <v>125.38732940456316</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2836,8 +2850,8 @@
         <v>154.73008866734469</v>
       </c>
       <c r="D33">
-        <f>[1]DEU!N109</f>
-        <v>125.81348328111076</v>
+        <f>[1]DEU!O109</f>
+        <v>126.32773437509739</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2853,7 +2867,7 @@
         <v>101.726666666667</v>
       </c>
       <c r="D34">
-        <f>[1]ESP!N78</f>
+        <f>[1]ESP!O78</f>
         <v>96.1152836224705</v>
       </c>
     </row>
@@ -2870,7 +2884,7 @@
         <v>104.08</v>
       </c>
       <c r="D35">
-        <f>[1]ESP!N79</f>
+        <f>[1]ESP!O79</f>
         <v>96.461714861896198</v>
       </c>
     </row>
@@ -2887,7 +2901,7 @@
         <v>103.59333333333301</v>
       </c>
       <c r="D36">
-        <f>[1]ESP!N80</f>
+        <f>[1]ESP!O80</f>
         <v>97.354543378234794</v>
       </c>
     </row>
@@ -2904,7 +2918,7 @@
         <v>104.43</v>
       </c>
       <c r="D37">
-        <f>[1]ESP!N81</f>
+        <f>[1]ESP!O81</f>
         <v>97.949126786947204</v>
       </c>
     </row>
@@ -2921,7 +2935,7 @@
         <v>102.87666666666701</v>
       </c>
       <c r="D38">
-        <f>[1]ESP!N82</f>
+        <f>[1]ESP!O82</f>
         <v>99.0802023354548</v>
       </c>
     </row>
@@ -2938,7 +2952,7 @@
         <v>105.183333333333</v>
       </c>
       <c r="D39">
-        <f>[1]ESP!N83</f>
+        <f>[1]ESP!O83</f>
         <v>100.054938694131</v>
       </c>
     </row>
@@ -2955,7 +2969,7 @@
         <v>104.043333333333</v>
       </c>
       <c r="D40">
-        <f>[1]ESP!N84</f>
+        <f>[1]ESP!O84</f>
         <v>100.404034320196</v>
       </c>
     </row>
@@ -2972,7 +2986,7 @@
         <v>104.95333333333301</v>
       </c>
       <c r="D41">
-        <f>[1]ESP!N85</f>
+        <f>[1]ESP!O85</f>
         <v>100.460824650219</v>
       </c>
     </row>
@@ -2989,7 +3003,7 @@
         <v>103.586666666667</v>
       </c>
       <c r="D42">
-        <f>[1]ESP!N86</f>
+        <f>[1]ESP!O86</f>
         <v>101.41083293099599</v>
       </c>
     </row>
@@ -3006,7 +3020,7 @@
         <v>104.543333333333</v>
       </c>
       <c r="D43">
-        <f>[1]ESP!N87</f>
+        <f>[1]ESP!O87</f>
         <v>96.163302579026805</v>
       </c>
     </row>
@@ -3023,7 +3037,7 @@
         <v>103.383333333333</v>
       </c>
       <c r="D44">
-        <f>[1]ESP!N88</f>
+        <f>[1]ESP!O88</f>
         <v>103.898693840023</v>
       </c>
     </row>
@@ -3040,7 +3054,7 @@
         <v>104.136666666667</v>
       </c>
       <c r="D45">
-        <f>[1]ESP!N89</f>
+        <f>[1]ESP!O89</f>
         <v>103.31535334141201</v>
       </c>
     </row>
@@ -3057,7 +3071,7 @@
         <v>104.12</v>
       </c>
       <c r="D46">
-        <f>[1]ESP!N90</f>
+        <f>[1]ESP!O90</f>
         <v>105.021841176381</v>
       </c>
     </row>
@@ -3074,7 +3088,7 @@
         <v>106.933333333333</v>
       </c>
       <c r="D47">
-        <f>[1]ESP!N91</f>
+        <f>[1]ESP!O91</f>
         <v>103.941342351332</v>
       </c>
     </row>
@@ -3091,7 +3105,7 @@
         <v>106.9</v>
       </c>
       <c r="D48">
-        <f>[1]ESP!N92</f>
+        <f>[1]ESP!O92</f>
         <v>107.20612805189501</v>
       </c>
     </row>
@@ -3108,7 +3122,7 @@
         <v>110.2</v>
       </c>
       <c r="D49">
-        <f>[1]ESP!N93</f>
+        <f>[1]ESP!O93</f>
         <v>106.788910137946</v>
       </c>
     </row>
@@ -3125,7 +3139,7 @@
         <v>112.306666666667</v>
       </c>
       <c r="D50">
-        <f>[1]ESP!N94</f>
+        <f>[1]ESP!O94</f>
         <v>108.057063566884</v>
       </c>
     </row>
@@ -3142,7 +3156,7 @@
         <v>116.48666666666701</v>
       </c>
       <c r="D51">
-        <f>[1]ESP!N95</f>
+        <f>[1]ESP!O95</f>
         <v>108.445334430527</v>
       </c>
     </row>
@@ -3159,7 +3173,7 @@
         <v>117.643333333333</v>
       </c>
       <c r="D52">
-        <f>[1]ESP!N96</f>
+        <f>[1]ESP!O96</f>
         <v>111.821620528224</v>
       </c>
     </row>
@@ -3176,7 +3190,7 @@
         <v>117.35</v>
       </c>
       <c r="D53">
-        <f>[1]ESP!N97</f>
+        <f>[1]ESP!O97</f>
         <v>111.926017921461</v>
       </c>
     </row>
@@ -3193,7 +3207,7 @@
         <v>117.866666666667</v>
       </c>
       <c r="D54">
-        <f>[1]ESP!N98</f>
+        <f>[1]ESP!O98</f>
         <v>114.27965314181</v>
       </c>
     </row>
@@ -3210,7 +3224,7 @@
         <v>119.726666666667</v>
       </c>
       <c r="D55">
-        <f>[1]ESP!N99</f>
+        <f>[1]ESP!O99</f>
         <v>114.814268852656</v>
       </c>
     </row>
@@ -3227,7 +3241,7 @@
         <v>120.696666666667</v>
       </c>
       <c r="D56">
-        <f>[1]ESP!N100</f>
+        <f>[1]ESP!O100</f>
         <v>117.42941143365201</v>
       </c>
     </row>
@@ -3244,7 +3258,7 @@
         <v>121.26666666666701</v>
       </c>
       <c r="D57">
-        <f>[1]ESP!N101</f>
+        <f>[1]ESP!O101</f>
         <v>117.58635889436501</v>
       </c>
     </row>
@@ -3261,7 +3275,7 @@
         <v>121.68</v>
       </c>
       <c r="D58">
-        <f>[1]ESP!N102</f>
+        <f>[1]ESP!O102</f>
         <v>119.79694840129</v>
       </c>
     </row>
@@ -3278,7 +3292,7 @@
         <v>124.02</v>
       </c>
       <c r="D59">
-        <f>[1]ESP!N103</f>
+        <f>[1]ESP!O103</f>
         <v>119.95298995896199</v>
       </c>
     </row>
@@ -3295,7 +3309,7 @@
         <v>123.67247568875801</v>
       </c>
       <c r="D60">
-        <f>[1]ESP!N104</f>
+        <f>[1]ESP!O104</f>
         <v>120.91261387863369</v>
       </c>
     </row>
@@ -3312,7 +3326,7 @@
         <v>124.61084059804648</v>
       </c>
       <c r="D61">
-        <f>[1]ESP!N105</f>
+        <f>[1]ESP!O105</f>
         <v>122.00179470445241</v>
       </c>
     </row>
@@ -3329,7 +3343,7 @@
         <v>125.43919116092198</v>
       </c>
       <c r="D62">
-        <f>[1]ESP!N106</f>
+        <f>[1]ESP!O106</f>
         <v>123.10078687115013</v>
       </c>
     </row>
@@ -3346,7 +3360,7 @@
         <v>126.14039623951153</v>
       </c>
       <c r="D63">
-        <f>[1]ESP!N107</f>
+        <f>[1]ESP!O107</f>
         <v>124.33376435245155</v>
       </c>
     </row>
@@ -3363,7 +3377,7 @@
         <v>126.8455210544904</v>
       </c>
       <c r="D64">
-        <f>[1]ESP!N108</f>
+        <f>[1]ESP!O108</f>
         <v>125.57909133620568</v>
       </c>
     </row>
@@ -3380,7 +3394,7 @@
         <v>127.554587517185</v>
       </c>
       <c r="D65">
-        <f>[1]ESP!N109</f>
+        <f>[1]ESP!O109</f>
         <v>126.83689151502909</v>
       </c>
     </row>
@@ -3393,10 +3407,10 @@
       </c>
       <c r="C66">
         <f>[1]FRA!M78</f>
-        <v>102.44329999999999</v>
+        <v>102.443333333333</v>
       </c>
       <c r="D66">
-        <f>[1]FRA!N78</f>
+        <f>[1]FRA!O78</f>
         <v>99.218662037528702</v>
       </c>
     </row>
@@ -3412,7 +3426,7 @@
         <v>103.76</v>
       </c>
       <c r="D67">
-        <f>[1]FRA!N79</f>
+        <f>[1]FRA!O79</f>
         <v>99.744724148525407</v>
       </c>
     </row>
@@ -3428,7 +3442,7 @@
         <v>104.09</v>
       </c>
       <c r="D68">
-        <f>[1]FRA!N80</f>
+        <f>[1]FRA!O80</f>
         <v>100.362885403181</v>
       </c>
     </row>
@@ -3441,10 +3455,10 @@
       </c>
       <c r="C69">
         <f>[1]FRA!M81</f>
-        <v>104.1133</v>
+        <v>104.113333333333</v>
       </c>
       <c r="D69">
-        <f>[1]FRA!N81</f>
+        <f>[1]FRA!O81</f>
         <v>100.876032381016</v>
       </c>
     </row>
@@ -3457,10 +3471,10 @@
       </c>
       <c r="C70">
         <f>[1]FRA!M82</f>
-        <v>103.9033</v>
+        <v>103.90333333333299</v>
       </c>
       <c r="D70">
-        <f>[1]FRA!N82</f>
+        <f>[1]FRA!O82</f>
         <v>99.925256343613</v>
       </c>
     </row>
@@ -3473,10 +3487,10 @@
       </c>
       <c r="C71">
         <f>[1]FRA!M83</f>
-        <v>105.1133</v>
+        <v>105.113333333333</v>
       </c>
       <c r="D71">
-        <f>[1]FRA!N83</f>
+        <f>[1]FRA!O83</f>
         <v>99.821493647443702</v>
       </c>
     </row>
@@ -3489,10 +3503,10 @@
       </c>
       <c r="C72">
         <f>[1]FRA!M84</f>
-        <v>105.3533</v>
+        <v>105.353333333333</v>
       </c>
       <c r="D72">
-        <f>[1]FRA!N84</f>
+        <f>[1]FRA!O84</f>
         <v>100.217652141892</v>
       </c>
     </row>
@@ -3505,10 +3519,10 @@
       </c>
       <c r="C73">
         <f>[1]FRA!M85</f>
-        <v>105.41670000000001</v>
+        <v>105.416666666667</v>
       </c>
       <c r="D73">
-        <f>[1]FRA!N85</f>
+        <f>[1]FRA!O85</f>
         <v>100.035597867051</v>
       </c>
     </row>
@@ -3521,10 +3535,10 @@
       </c>
       <c r="C74">
         <f>[1]FRA!M86</f>
-        <v>105.2833</v>
+        <v>105.283333333333</v>
       </c>
       <c r="D74">
-        <f>[1]FRA!N86</f>
+        <f>[1]FRA!O86</f>
         <v>97.336708041256401</v>
       </c>
     </row>
@@ -3537,10 +3551,10 @@
       </c>
       <c r="C75">
         <f>[1]FRA!M87</f>
-        <v>105.4633</v>
+        <v>105.463333333333</v>
       </c>
       <c r="D75">
-        <f>[1]FRA!N87</f>
+        <f>[1]FRA!O87</f>
         <v>90.282845021076099</v>
       </c>
     </row>
@@ -3553,10 +3567,10 @@
       </c>
       <c r="C76">
         <f>[1]FRA!M88</f>
-        <v>105.7333</v>
+        <v>105.73333333333299</v>
       </c>
       <c r="D76">
-        <f>[1]FRA!N88</f>
+        <f>[1]FRA!O88</f>
         <v>99.527373326911899</v>
       </c>
     </row>
@@ -3569,10 +3583,10 @@
       </c>
       <c r="C77">
         <f>[1]FRA!M89</f>
-        <v>105.5067</v>
+        <v>105.506666666667</v>
       </c>
       <c r="D77">
-        <f>[1]FRA!N89</f>
+        <f>[1]FRA!O89</f>
         <v>98.683685013106697</v>
       </c>
     </row>
@@ -3588,7 +3602,7 @@
         <v>106.3</v>
       </c>
       <c r="D78">
-        <f>[1]FRA!N90</f>
+        <f>[1]FRA!O90</f>
         <v>99.019001818304204</v>
       </c>
     </row>
@@ -3601,10 +3615,10 @@
       </c>
       <c r="C79">
         <f>[1]FRA!M91</f>
-        <v>107.3233</v>
+        <v>107.323333333333</v>
       </c>
       <c r="D79">
-        <f>[1]FRA!N91</f>
+        <f>[1]FRA!O91</f>
         <v>100.094530979941</v>
       </c>
     </row>
@@ -3620,7 +3634,7 @@
         <v>108.06</v>
       </c>
       <c r="D80">
-        <f>[1]FRA!N92</f>
+        <f>[1]FRA!O92</f>
         <v>102.569037000291</v>
       </c>
     </row>
@@ -3633,10 +3647,10 @@
       </c>
       <c r="C81">
         <f>[1]FRA!M93</f>
-        <v>109.02330000000001</v>
+        <v>109.023333333333</v>
       </c>
       <c r="D81">
-        <f>[1]FRA!N93</f>
+        <f>[1]FRA!O93</f>
         <v>103.387888357477</v>
       </c>
     </row>
@@ -3649,10 +3663,10 @@
       </c>
       <c r="C82">
         <f>[1]FRA!M94</f>
-        <v>110.7533</v>
+        <v>110.753333333333</v>
       </c>
       <c r="D82">
-        <f>[1]FRA!N94</f>
+        <f>[1]FRA!O94</f>
         <v>104.22931190857</v>
       </c>
     </row>
@@ -3668,7 +3682,7 @@
         <v>113.67</v>
       </c>
       <c r="D83">
-        <f>[1]FRA!N95</f>
+        <f>[1]FRA!O95</f>
         <v>105.180338151192</v>
       </c>
     </row>
@@ -3684,7 +3698,7 @@
         <v>115.11</v>
       </c>
       <c r="D84">
-        <f>[1]FRA!N96</f>
+        <f>[1]FRA!O96</f>
         <v>106.891785178945</v>
       </c>
     </row>
@@ -3700,7 +3714,7 @@
         <v>116.61</v>
       </c>
       <c r="D85">
-        <f>[1]FRA!N97</f>
+        <f>[1]FRA!O97</f>
         <v>108.234486358867</v>
       </c>
     </row>
@@ -3716,7 +3730,7 @@
         <v>118.51</v>
       </c>
       <c r="D86">
-        <f>[1]FRA!N98</f>
+        <f>[1]FRA!O98</f>
         <v>109.27525316783399</v>
       </c>
     </row>
@@ -3729,10 +3743,10 @@
       </c>
       <c r="C87">
         <f>[1]FRA!M99</f>
-        <v>120.5733</v>
+        <v>120.573333333333</v>
       </c>
       <c r="D87">
-        <f>[1]FRA!N99</f>
+        <f>[1]FRA!O99</f>
         <v>110.047997604964</v>
       </c>
     </row>
@@ -3745,10 +3759,10 @@
       </c>
       <c r="C88">
         <f>[1]FRA!M100</f>
-        <v>121.4233</v>
+        <v>121.42333333333301</v>
       </c>
       <c r="D88">
-        <f>[1]FRA!N100</f>
+        <f>[1]FRA!O100</f>
         <v>110.933835270689</v>
       </c>
     </row>
@@ -3761,10 +3775,10 @@
       </c>
       <c r="C89">
         <f>[1]FRA!M101</f>
-        <v>121.47329999999999</v>
+        <v>121.473333333333</v>
       </c>
       <c r="D89">
-        <f>[1]FRA!N101</f>
+        <f>[1]FRA!O101</f>
         <v>112.122400625089</v>
       </c>
     </row>
@@ -3777,10 +3791,10 @@
       </c>
       <c r="C90">
         <f>[1]FRA!M102</f>
-        <v>122.0667</v>
+        <v>122.066666666667</v>
       </c>
       <c r="D90">
-        <f>[1]FRA!N102</f>
+        <f>[1]FRA!O102</f>
         <v>112.724577247184</v>
       </c>
     </row>
@@ -3793,10 +3807,10 @@
       </c>
       <c r="C91">
         <f>[1]FRA!M103</f>
-        <v>123.5933</v>
+        <v>123.59333333333301</v>
       </c>
       <c r="D91">
-        <f>[1]FRA!N103</f>
+        <f>[1]FRA!O103</f>
         <v>113.47064626283699</v>
       </c>
     </row>
@@ -3809,11 +3823,11 @@
       </c>
       <c r="C92">
         <f>[1]FRA!M104</f>
-        <v>124.30222523990074</v>
+        <v>124.0371842855411</v>
       </c>
       <c r="D92">
-        <f>[1]FRA!N104</f>
-        <v>114.26494078667685</v>
+        <f>[1]FRA!O104</f>
+        <v>114.15147014041402</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3825,11 +3839,11 @@
       </c>
       <c r="C93">
         <f>[1]FRA!M105</f>
-        <v>124.09138576341036</v>
+        <v>123.68744390498389</v>
       </c>
       <c r="D93">
-        <f>[1]FRA!N105</f>
-        <v>115.17906031297026</v>
+        <f>[1]FRA!O105</f>
+        <v>114.9505304313969</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3841,11 +3855,11 @@
       </c>
       <c r="C94">
         <f>[1]FRA!M106</f>
-        <v>124.46705417244691</v>
+        <v>123.92206531947878</v>
       </c>
       <c r="D94">
-        <f>[1]FRA!N106</f>
-        <v>115.75495561453511</v>
+        <f>[1]FRA!O106</f>
+        <v>115.41033255312249</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3857,11 +3871,11 @@
       </c>
       <c r="C95">
         <f>[1]FRA!M107</f>
-        <v>125.44370547471443</v>
+        <v>124.89475501746955</v>
       </c>
       <c r="D95">
-        <f>[1]FRA!N107</f>
-        <v>116.33373039260776</v>
+        <f>[1]FRA!O107</f>
+        <v>115.98738421588808</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3873,11 +3887,11 @@
       </c>
       <c r="C96">
         <f>[1]FRA!M108</f>
-        <v>126.47991794384598</v>
+        <v>125.86565111793354</v>
       </c>
       <c r="D96">
-        <f>[1]FRA!N108</f>
-        <v>116.91539904457079</v>
+        <f>[1]FRA!O108</f>
+        <v>116.68330852118342</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3889,11 +3903,11 @@
       </c>
       <c r="C97">
         <f>[1]FRA!M109</f>
-        <v>126.73737793008245</v>
+        <v>126.00026358139961</v>
       </c>
       <c r="D97">
-        <f>[1]FRA!N109</f>
-        <v>117.49997603979364</v>
+        <f>[1]FRA!O109</f>
+        <v>117.50009168083169</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3908,8 +3922,8 @@
         <v>101.033333333333</v>
       </c>
       <c r="D98">
-        <f>[1]ITA!N78</f>
-        <v>96.91085538721309</v>
+        <f>[1]ITA!O78</f>
+        <v>6614.9790560716665</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3924,8 +3938,8 @@
         <v>103.166666666667</v>
       </c>
       <c r="D99">
-        <f>[1]ITA!N79</f>
-        <v>97.619988407043891</v>
+        <f>[1]ITA!O79</f>
+        <v>6690.4429096798485</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3940,8 +3954,8 @@
         <v>102.433333333333</v>
       </c>
       <c r="D100">
-        <f>[1]ITA!N80</f>
-        <v>98.67356077743348</v>
+        <f>[1]ITA!O80</f>
+        <v>6718.9043533129552</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3956,8 +3970,8 @@
         <v>103.466666666667</v>
       </c>
       <c r="D101">
-        <f>[1]ITA!N81</f>
-        <v>99.316476799355613</v>
+        <f>[1]ITA!O81</f>
+        <v>6744.4478342028924</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3972,8 +3986,8 @@
         <v>102.066666666667</v>
       </c>
       <c r="D102">
-        <f>[1]ITA!N82</f>
-        <v>100.13815821193296</v>
+        <f>[1]ITA!O82</f>
+        <v>6766.9602549121555</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3988,8 +4002,8 @@
         <v>104.1</v>
       </c>
       <c r="D103">
-        <f>[1]ITA!N83</f>
-        <v>99.630408122716929</v>
+        <f>[1]ITA!O83</f>
+        <v>6735.5438344940603</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -4004,8 +4018,8 @@
         <v>102.76666666666701</v>
       </c>
       <c r="D104">
-        <f>[1]ITA!N84</f>
-        <v>99.749246056247316</v>
+        <f>[1]ITA!O84</f>
+        <v>6751.4016107643702</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -4020,8 +4034,8 @@
         <v>103.76666666666701</v>
       </c>
       <c r="D105">
-        <f>[1]ITA!N85</f>
-        <v>100.48218760910278</v>
+        <f>[1]ITA!O85</f>
+        <v>6789.3326488706371</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -4036,8 +4050,8 @@
         <v>102.3</v>
       </c>
       <c r="D106">
-        <f>[1]ITA!N86</f>
-        <v>95.662014019132755</v>
+        <f>[1]ITA!O86</f>
+        <v>6519.8461467262487</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -4052,8 +4066,8 @@
         <v>103.9</v>
       </c>
       <c r="D107">
-        <f>[1]ITA!N87</f>
-        <v>85.658012775992177</v>
+        <f>[1]ITA!O87</f>
+        <v>5989.6642335766428</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -4068,8 +4082,8 @@
         <v>102.533333333333</v>
       </c>
       <c r="D108">
-        <f>[1]ITA!N88</f>
-        <v>98.163683985716716</v>
+        <f>[1]ITA!O88</f>
+        <v>6673.4672481757952</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -4084,8 +4098,8 @@
         <v>103.366666666667</v>
       </c>
       <c r="D109">
-        <f>[1]ITA!N89</f>
-        <v>97.19911172617708</v>
+        <f>[1]ITA!O89</f>
+        <v>6641.396253775175</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -4100,8 +4114,8 @@
         <v>103.066666666667</v>
       </c>
       <c r="D110">
-        <f>[1]ITA!N90</f>
-        <v>98.693379488968404</v>
+        <f>[1]ITA!O90</f>
+        <v>6699.4117953255945</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -4116,8 +4130,8 @@
         <v>105.1</v>
       </c>
       <c r="D111">
-        <f>[1]ITA!N91</f>
-        <v>100.52016410635939</v>
+        <f>[1]ITA!O91</f>
+        <v>6804.4860391368238</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -4132,8 +4146,8 @@
         <v>104.7</v>
       </c>
       <c r="D112">
-        <f>[1]ITA!N92</f>
-        <v>103.93871622715339</v>
+        <f>[1]ITA!O92</f>
+        <v>6985.5457962272603</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4148,8 +4162,8 @@
         <v>107.23333333333299</v>
       </c>
       <c r="D113">
-        <f>[1]ITA!N93</f>
-        <v>105.08753662986088</v>
+        <f>[1]ITA!O93</f>
+        <v>7027.7573314787833</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -4164,8 +4178,8 @@
         <v>109.26666666666701</v>
       </c>
       <c r="D114">
-        <f>[1]ITA!N94</f>
-        <v>105.98093532370035</v>
+        <f>[1]ITA!O94</f>
+        <v>7127.9777297757764</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -4180,8 +4194,8 @@
         <v>112.833333333333</v>
       </c>
       <c r="D115">
-        <f>[1]ITA!N95</f>
-        <v>106.67429910383822</v>
+        <f>[1]ITA!O95</f>
+        <v>7232.3159946485748</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -4196,8 +4210,8 @@
         <v>114.066666666667</v>
       </c>
       <c r="D116">
-        <f>[1]ITA!N96</f>
-        <v>107.82200279495986</v>
+        <f>[1]ITA!O96</f>
+        <v>7250.5639144959941</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -4212,8 +4226,8 @@
         <v>120.633333333333</v>
       </c>
       <c r="D117">
-        <f>[1]ITA!N97</f>
-        <v>108.23567708876975</v>
+        <f>[1]ITA!O97</f>
+        <v>7356.2107442541037</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4228,8 +4242,8 @@
         <v>119.666666666667</v>
       </c>
       <c r="D118">
-        <f>[1]ITA!N98</f>
-        <v>110.04281920683751</v>
+        <f>[1]ITA!O98</f>
+        <v>7347.2340887877008</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4244,8 +4258,8 @@
         <v>121.6</v>
       </c>
       <c r="D119">
-        <f>[1]ITA!N99</f>
-        <v>110.62636825491812</v>
+        <f>[1]ITA!O99</f>
+        <v>7381.6337700375234</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -4260,8 +4274,8 @@
         <v>120.7</v>
       </c>
       <c r="D120">
-        <f>[1]ITA!N100</f>
-        <v>112.20650126175622</v>
+        <f>[1]ITA!O100</f>
+        <v>7477.2668981572824</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4276,8 +4290,8 @@
         <v>121.8</v>
       </c>
       <c r="D121">
-        <f>[1]ITA!N101</f>
-        <v>112.81106840758584</v>
+        <f>[1]ITA!O101</f>
+        <v>7505.5229429605706</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4292,8 +4306,8 @@
         <v>120.866666666667</v>
       </c>
       <c r="D122">
-        <f>[1]ITA!N102</f>
-        <v>113.20030700864221</v>
+        <f>[1]ITA!O102</f>
+        <v>7620.4489507421586</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -4308,8 +4322,8 @@
         <v>122.666666666667</v>
       </c>
       <c r="D123">
-        <f>[1]ITA!N103</f>
-        <v>114.50609757830749</v>
+        <f>[1]ITA!O103</f>
+        <v>7624.7501116006442</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -4324,8 +4338,8 @@
         <v>121.79799140431328</v>
       </c>
       <c r="D124">
-        <f>[1]ITA!N104</f>
-        <v>115.65115855409054</v>
+        <f>[1]ITA!O104</f>
+        <v>7685.7481124934484</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4340,8 +4354,8 @@
         <v>123.59688820892558</v>
       </c>
       <c r="D125">
-        <f>[1]ITA!N105</f>
-        <v>116.57636782252327</v>
+        <f>[1]ITA!O105</f>
+        <v>7742.78131736046</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -4356,8 +4370,8 @@
         <v>123.26690216710196</v>
       </c>
       <c r="D126">
-        <f>[1]ITA!N106</f>
-        <v>117.60846580085823</v>
+        <f>[1]ITA!O106</f>
+        <v>7794.0524268501813</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4372,8 +4386,8 @@
         <v>125.07792435273262</v>
       </c>
       <c r="D127">
-        <f>[1]ITA!N107</f>
-        <v>118.64970136219372</v>
+        <f>[1]ITA!O107</f>
+        <v>7837.8703686471945</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4388,8 +4402,8 @@
         <v>124.58702739646637</v>
       </c>
       <c r="D128">
-        <f>[1]ITA!N108</f>
-        <v>119.70015540526698</v>
+        <f>[1]ITA!O108</f>
+        <v>7881.9342362049256</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -4404,8 +4418,8 @@
         <v>126.29358180658399</v>
       </c>
       <c r="D129">
-        <f>[1]ITA!N109</f>
-        <v>120.75990954504455</v>
+        <f>[1]ITA!O109</f>
+        <v>7922.5954183081767</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -4821,7 +4835,7 @@
       </c>
       <c r="D155">
         <f>[1]GBR!O103</f>
-        <v>125.41331889787912</v>
+        <v>123.96242200142082</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -4833,11 +4847,11 @@
       </c>
       <c r="C156">
         <f>[1]GBR!M104</f>
-        <v>134.09111481575286</v>
+        <v>134.23575910868541</v>
       </c>
       <c r="D156">
         <f>[1]GBR!O104</f>
-        <v>128.07726591705216</v>
+        <v>126.44181797803788</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -4849,11 +4863,11 @@
       </c>
       <c r="C157">
         <f>[1]GBR!M105</f>
-        <v>134.79565686881622</v>
+        <v>135.21854540891761</v>
       </c>
       <c r="D157">
         <f>[1]GBR!O105</f>
-        <v>128.12369919041112</v>
+        <v>126.31757876397614</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -4865,11 +4879,11 @@
       </c>
       <c r="C158">
         <f>[1]GBR!M106</f>
-        <v>134.61723489034276</v>
+        <v>135.03555237250595</v>
       </c>
       <c r="D158">
         <f>[1]GBR!O106</f>
-        <v>128.3240418446841</v>
+        <v>127.47122850967678</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -4881,11 +4895,11 @@
       </c>
       <c r="C159">
         <f>[1]GBR!M107</f>
-        <v>136.54199318071565</v>
+        <v>137.00886610919977</v>
       </c>
       <c r="D159">
         <f>[1]GBR!O107</f>
-        <v>130.83096006582159</v>
+        <v>128.02948361545586</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -4897,11 +4911,11 @@
       </c>
       <c r="C160">
         <f>[1]GBR!M108</f>
-        <v>137.12706314831919</v>
+        <v>137.61784247709673</v>
       </c>
       <c r="D160">
         <f>[1]GBR!O108</f>
-        <v>133.28518983390478</v>
+        <v>130.60839856919392</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
@@ -4913,11 +4927,11 @@
       </c>
       <c r="C161">
         <f>[1]GBR!M109</f>
-        <v>137.42406059177765</v>
+        <v>137.80757716428232</v>
       </c>
       <c r="D161">
         <f>[1]GBR!O109</f>
-        <v>133.26272157236122</v>
+        <v>130.64094118317519</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -4932,7 +4946,7 @@
         <v>249.322</v>
       </c>
       <c r="D162">
-        <f>[2]USA!N70</f>
+        <f>[2]USA!O70</f>
         <v>96.815667127696898</v>
       </c>
     </row>
@@ -4948,7 +4962,7 @@
         <v>250.679</v>
       </c>
       <c r="D163">
-        <f>[2]USA!N71</f>
+        <f>[2]USA!O71</f>
         <v>95.867875759097103</v>
       </c>
     </row>
@@ -4964,7 +4978,7 @@
         <v>251.68600000000001</v>
       </c>
       <c r="D164">
-        <f>[2]USA!N72</f>
+        <f>[2]USA!O72</f>
         <v>97.448071233017899</v>
       </c>
     </row>
@@ -4980,7 +4994,7 @@
         <v>252.71100000000001</v>
       </c>
       <c r="D165">
-        <f>[2]USA!N73</f>
+        <f>[2]USA!O73</f>
         <v>96.787212996859196</v>
       </c>
     </row>
@@ -4996,7 +5010,7 @@
         <v>253.386</v>
       </c>
       <c r="D166">
-        <f>[2]USA!N74</f>
+        <f>[2]USA!O74</f>
         <v>100.36122204495101</v>
       </c>
     </row>
@@ -5012,7 +5026,7 @@
         <v>255.24700000000001</v>
       </c>
       <c r="D167">
-        <f>[2]USA!N75</f>
+        <f>[2]USA!O75</f>
         <v>99.194024729903703</v>
       </c>
     </row>
@@ -5028,7 +5042,7 @@
         <v>256.089</v>
       </c>
       <c r="D168">
-        <f>[2]USA!N76</f>
+        <f>[2]USA!O76</f>
         <v>100.06659048795299</v>
       </c>
     </row>
@@ -5044,7 +5058,7 @@
         <v>257.88799999999998</v>
       </c>
       <c r="D169">
-        <f>[2]USA!N77</f>
+        <f>[2]USA!O77</f>
         <v>100.378162737192</v>
       </c>
     </row>
@@ -5060,7 +5074,7 @@
         <v>258.767</v>
       </c>
       <c r="D170">
-        <f>[2]USA!N78</f>
+        <f>[2]USA!O78</f>
         <v>103.753496941405</v>
       </c>
     </row>
@@ -5076,7 +5090,7 @@
         <v>256.32600000000002</v>
       </c>
       <c r="D171">
-        <f>[2]USA!N79</f>
+        <f>[2]USA!O79</f>
         <v>109.092437791573</v>
       </c>
     </row>
@@ -5092,7 +5106,7 @@
         <v>259.24200000000002</v>
       </c>
       <c r="D172">
-        <f>[2]USA!N80</f>
+        <f>[2]USA!O80</f>
         <v>109.387200508058</v>
       </c>
     </row>
@@ -5108,7 +5122,7 @@
         <v>261.05</v>
       </c>
       <c r="D173">
-        <f>[2]USA!N81</f>
+        <f>[2]USA!O81</f>
         <v>110.33155203484</v>
       </c>
     </row>
@@ -5124,7 +5138,7 @@
         <v>263.67</v>
       </c>
       <c r="D174">
-        <f>[2]USA!N82</f>
+        <f>[2]USA!O82</f>
         <v>112.498686405576</v>
       </c>
     </row>
@@ -5140,7 +5154,7 @@
         <v>268.62299999999999</v>
       </c>
       <c r="D175">
-        <f>[2]USA!N83</f>
+        <f>[2]USA!O83</f>
         <v>112.795020365032</v>
       </c>
     </row>
@@ -5156,7 +5170,7 @@
         <v>272.89</v>
       </c>
       <c r="D176">
-        <f>[2]USA!N84</f>
+        <f>[2]USA!O84</f>
         <v>114.87078554668599</v>
       </c>
     </row>
@@ -5172,7 +5186,7 @@
         <v>278.68</v>
       </c>
       <c r="D177">
-        <f>[2]USA!N85</f>
+        <f>[2]USA!O85</f>
         <v>115.410574600282</v>
       </c>
     </row>
@@ -5188,7 +5202,7 @@
         <v>284.82600000000002</v>
       </c>
       <c r="D178">
-        <f>[2]USA!N86</f>
+        <f>[2]USA!O86</f>
         <v>117.76956048902299</v>
       </c>
     </row>
@@ -5204,7 +5218,7 @@
         <v>291.70600000000002</v>
       </c>
       <c r="D179">
-        <f>[2]USA!N87</f>
+        <f>[2]USA!O87</f>
         <v>116.30663531326699</v>
       </c>
     </row>
@@ -5220,7 +5234,7 @@
         <v>295.50900000000001</v>
       </c>
       <c r="D180">
-        <f>[2]USA!N88</f>
+        <f>[2]USA!O88</f>
         <v>118.783039209069</v>
       </c>
     </row>
@@ -5236,7 +5250,7 @@
         <v>298.44099999999997</v>
       </c>
       <c r="D181">
-        <f>[2]USA!N89</f>
+        <f>[2]USA!O89</f>
         <v>117.85670224044399</v>
       </c>
     </row>
@@ -5252,7 +5266,7 @@
         <v>301.20299999999997</v>
       </c>
       <c r="D182">
-        <f>[2]USA!N90</f>
+        <f>[2]USA!O90</f>
         <v>121.68854542692399</v>
       </c>
     </row>
@@ -5268,7 +5282,7 @@
         <v>303.46699999999998</v>
       </c>
       <c r="D183">
-        <f>[2]USA!N91</f>
+        <f>[2]USA!O91</f>
         <v>121.406947057848</v>
       </c>
     </row>
@@ -5284,7 +5298,7 @@
         <v>306.03399999999999</v>
       </c>
       <c r="D184">
-        <f>[2]USA!N92</f>
+        <f>[2]USA!O92</f>
         <v>123.54478006365601</v>
       </c>
     </row>
@@ -5300,7 +5314,7 @@
         <v>308.09899999999999</v>
       </c>
       <c r="D185">
-        <f>[2]USA!N93</f>
+        <f>[2]USA!O93</f>
         <v>122.787017205628</v>
       </c>
     </row>
@@ -5316,7 +5330,7 @@
         <v>310.99</v>
       </c>
       <c r="D186">
-        <f>[2]USA!N94</f>
+        <f>[2]USA!O94</f>
         <v>126.075865389109</v>
       </c>
     </row>
@@ -5332,7 +5346,7 @@
         <v>313.16000000000003</v>
       </c>
       <c r="D187">
-        <f>[2]USA!N95</f>
+        <f>[2]USA!O95</f>
         <v>127.1731495503135</v>
       </c>
     </row>
@@ -5348,7 +5362,7 @@
         <v>314.9464150932551</v>
       </c>
       <c r="D188">
-        <f>[2]USA!N96</f>
+        <f>[2]USA!O96</f>
         <v>128.34861950081117</v>
       </c>
     </row>
@@ -5364,7 +5378,7 @@
         <v>315.90869917181413</v>
       </c>
       <c r="D189">
-        <f>[2]USA!N97</f>
+        <f>[2]USA!O97</f>
         <v>129.3548617078728</v>
       </c>
     </row>
@@ -5380,7 +5394,7 @@
         <v>317.93274389155175</v>
       </c>
       <c r="D190">
-        <f>[2]USA!N98</f>
+        <f>[2]USA!O98</f>
         <v>130.28204609708189</v>
       </c>
     </row>
@@ -5396,7 +5410,7 @@
         <v>319.3525000720615</v>
       </c>
       <c r="D191">
-        <f>[2]USA!N99</f>
+        <f>[2]USA!O99</f>
         <v>131.34546748661876</v>
       </c>
     </row>
@@ -5412,7 +5426,7 @@
         <v>321.26620855894731</v>
       </c>
       <c r="D192">
-        <f>[2]USA!N100</f>
+        <f>[2]USA!O100</f>
         <v>132.15157353285096</v>
       </c>
     </row>
@@ -5428,7 +5442,7 @@
         <v>322.74575486848147</v>
       </c>
       <c r="D193">
-        <f>[2]USA!N101</f>
+        <f>[2]USA!O101</f>
         <v>133.05399690109795</v>
       </c>
     </row>
@@ -5436,4 +5450,497 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1A3914-7AE2-4A9A-AEF9-B1B3BB2AB327}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="str">
+        <f>Sheet1!A105</f>
+        <v>ITA</v>
+      </c>
+      <c r="B1" t="str">
+        <f>Sheet1!B105</f>
+        <v>2019 Q4</v>
+      </c>
+      <c r="C1">
+        <f>Sheet1!D105</f>
+        <v>6789.3326488706371</v>
+      </c>
+      <c r="F1">
+        <f>Sheet1!C105</f>
+        <v>103.76666666666701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>Sheet1!A106</f>
+        <v>ITA</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Sheet1!B106</f>
+        <v>2020 Q1</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!D106</f>
+        <v>6519.8461467262487</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!C106</f>
+        <v>102.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>Sheet1!A107</f>
+        <v>ITA</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Sheet1!B107</f>
+        <v>2020 Q2</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!D107</f>
+        <v>5989.6642335766428</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!C107</f>
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="str">
+        <f>Sheet1!A108</f>
+        <v>ITA</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Sheet1!B108</f>
+        <v>2020 Q3</v>
+      </c>
+      <c r="C4">
+        <f>Sheet1!D108</f>
+        <v>6673.4672481757952</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!C108</f>
+        <v>102.533333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="str">
+        <f>Sheet1!A109</f>
+        <v>ITA</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Sheet1!B109</f>
+        <v>2020 Q4</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!D109</f>
+        <v>6641.396253775175</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!C109</f>
+        <v>103.366666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="str">
+        <f>Sheet1!A110</f>
+        <v>ITA</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Sheet1!B110</f>
+        <v>2021 Q1</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!D110</f>
+        <v>6699.4117953255945</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!C110</f>
+        <v>103.066666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>Sheet1!A111</f>
+        <v>ITA</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Sheet1!B111</f>
+        <v>2021 Q2</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!D111</f>
+        <v>6804.4860391368238</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!C111</f>
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="str">
+        <f>Sheet1!A112</f>
+        <v>ITA</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Sheet1!B112</f>
+        <v>2021 Q3</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!D112</f>
+        <v>6985.5457962272603</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!C112</f>
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="str">
+        <f>Sheet1!A113</f>
+        <v>ITA</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Sheet1!B113</f>
+        <v>2021 Q4</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!D113</f>
+        <v>7027.7573314787833</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!C113</f>
+        <v>107.23333333333299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="str">
+        <f>Sheet1!A114</f>
+        <v>ITA</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Sheet1!B114</f>
+        <v>2022 Q1</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!D114</f>
+        <v>7127.9777297757764</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!C114</f>
+        <v>109.26666666666701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>Sheet1!A115</f>
+        <v>ITA</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Sheet1!B115</f>
+        <v>2022 Q2</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!D115</f>
+        <v>7232.3159946485748</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!C115</f>
+        <v>112.833333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>Sheet1!A116</f>
+        <v>ITA</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Sheet1!B116</f>
+        <v>2022 Q3</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!D116</f>
+        <v>7250.5639144959941</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!C116</f>
+        <v>114.066666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>Sheet1!A117</f>
+        <v>ITA</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Sheet1!B117</f>
+        <v>2022 Q4</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!D117</f>
+        <v>7356.2107442541037</v>
+      </c>
+      <c r="D13" s="1">
+        <f>C13/$C$1-1</f>
+        <v>8.3495407384076792E-2</v>
+      </c>
+      <c r="F13">
+        <f>Sheet1!C117</f>
+        <v>120.633333333333</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F13/$F$1-1</f>
+        <v>0.16254416961130036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="str">
+        <f>Sheet1!A118</f>
+        <v>ITA</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Sheet1!B118</f>
+        <v>2023 Q1</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!D118</f>
+        <v>7347.2340887877008</v>
+      </c>
+      <c r="F14">
+        <f>Sheet1!C118</f>
+        <v>119.666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>Sheet1!A119</f>
+        <v>ITA</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Sheet1!B119</f>
+        <v>2023 Q2</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!D119</f>
+        <v>7381.6337700375234</v>
+      </c>
+      <c r="F15">
+        <f>Sheet1!C119</f>
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="str">
+        <f>Sheet1!A120</f>
+        <v>ITA</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Sheet1!B120</f>
+        <v>2023 Q3</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!D120</f>
+        <v>7477.2668981572824</v>
+      </c>
+      <c r="F16">
+        <f>Sheet1!C120</f>
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="str">
+        <f>Sheet1!A121</f>
+        <v>ITA</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Sheet1!B121</f>
+        <v>2023 Q4</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!D121</f>
+        <v>7505.5229429605706</v>
+      </c>
+      <c r="F17">
+        <f>Sheet1!C121</f>
+        <v>121.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="str">
+        <f>Sheet1!A122</f>
+        <v>ITA</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Sheet1!B122</f>
+        <v>2024 Q1</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!D122</f>
+        <v>7620.4489507421586</v>
+      </c>
+      <c r="F18">
+        <f>Sheet1!C122</f>
+        <v>120.866666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>Sheet1!A123</f>
+        <v>ITA</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Sheet1!B123</f>
+        <v>2024 Q2</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!D123</f>
+        <v>7624.7501116006442</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19/$C$1-1</f>
+        <v>0.1230485389265723</v>
+      </c>
+      <c r="F19">
+        <f>Sheet1!C123</f>
+        <v>122.666666666667</v>
+      </c>
+      <c r="G19" s="1">
+        <f>F19/$F$1-1</f>
+        <v>0.18213941535496248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="str">
+        <f>Sheet1!A124</f>
+        <v>ITA</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Sheet1!B124</f>
+        <v>2024 Q3</v>
+      </c>
+      <c r="C20">
+        <f>Sheet1!D124</f>
+        <v>7685.7481124934484</v>
+      </c>
+      <c r="F20">
+        <f>Sheet1!C124</f>
+        <v>121.79799140431328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="str">
+        <f>Sheet1!A125</f>
+        <v>ITA</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Sheet1!B125</f>
+        <v>2024 Q4</v>
+      </c>
+      <c r="C21">
+        <f>Sheet1!D125</f>
+        <v>7742.78131736046</v>
+      </c>
+      <c r="F21">
+        <f>Sheet1!C125</f>
+        <v>123.59688820892558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="str">
+        <f>Sheet1!A126</f>
+        <v>ITA</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Sheet1!B126</f>
+        <v>2025 Q1</v>
+      </c>
+      <c r="C22">
+        <f>Sheet1!D126</f>
+        <v>7794.0524268501813</v>
+      </c>
+      <c r="F22">
+        <f>Sheet1!C126</f>
+        <v>123.26690216710196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>Sheet1!A127</f>
+        <v>ITA</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Sheet1!B127</f>
+        <v>2025 Q2</v>
+      </c>
+      <c r="C23">
+        <f>Sheet1!D127</f>
+        <v>7837.8703686471945</v>
+      </c>
+      <c r="F23">
+        <f>Sheet1!C127</f>
+        <v>125.07792435273262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>Sheet1!A128</f>
+        <v>ITA</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Sheet1!B128</f>
+        <v>2025 Q3</v>
+      </c>
+      <c r="C24">
+        <f>Sheet1!D128</f>
+        <v>7881.9342362049256</v>
+      </c>
+      <c r="F24">
+        <f>Sheet1!C128</f>
+        <v>124.58702739646637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>Sheet1!A129</f>
+        <v>ITA</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Sheet1!B129</f>
+        <v>2025 Q4</v>
+      </c>
+      <c r="C25">
+        <f>Sheet1!D129</f>
+        <v>7922.5954183081767</v>
+      </c>
+      <c r="D25" s="1">
+        <f>C25/$C$1-1</f>
+        <v>0.16691813879911321</v>
+      </c>
+      <c r="F25">
+        <f>Sheet1!C129</f>
+        <v>126.29358180658399</v>
+      </c>
+      <c r="G25" s="1">
+        <f>F25/$F$1-1</f>
+        <v>0.21709201869499117</v>
+      </c>
+      <c r="H25" s="1">
+        <f>F25/F19-1</f>
+        <v>2.9567242988453701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>